--- a/Agile-Jira.xlsx
+++ b/Agile-Jira.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="84" windowWidth="16260" windowHeight="5856"/>
+    <workbookView xWindow="384" yWindow="84" windowWidth="16260" windowHeight="5856" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="EPIC &amp; Strories" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="85">
   <si>
     <t>Project Name</t>
   </si>
@@ -109,9 +109,6 @@
     <t>Test Data</t>
   </si>
   <si>
-    <t>Steps Name</t>
-  </si>
-  <si>
     <t>Test Steps</t>
   </si>
   <si>
@@ -128,13 +125,160 @@
   </si>
   <si>
     <t>Paa/Fail</t>
+  </si>
+  <si>
+    <t>SC_login_001</t>
+  </si>
+  <si>
+    <t>Verify login functionality with valid data</t>
+  </si>
+  <si>
+    <t>application should be available</t>
+  </si>
+  <si>
+    <t>step1</t>
+  </si>
+  <si>
+    <t>open browser</t>
+  </si>
+  <si>
+    <t>enter url</t>
+  </si>
+  <si>
+    <t>click on go</t>
+  </si>
+  <si>
+    <t>it should be open the login page</t>
+  </si>
+  <si>
+    <t>enter valid data on email or phone</t>
+  </si>
+  <si>
+    <t>click on next button</t>
+  </si>
+  <si>
+    <t>enter valid password</t>
+  </si>
+  <si>
+    <t>step2</t>
+  </si>
+  <si>
+    <t>step3</t>
+  </si>
+  <si>
+    <t>step4</t>
+  </si>
+  <si>
+    <t>step5</t>
+  </si>
+  <si>
+    <t>step6</t>
+  </si>
+  <si>
+    <t>step7</t>
+  </si>
+  <si>
+    <t>browser should be open</t>
+  </si>
+  <si>
+    <t>url should be enter</t>
+  </si>
+  <si>
+    <t>user should enter valid email</t>
+  </si>
+  <si>
+    <t>it should display welcome page</t>
+  </si>
+  <si>
+    <t>user should enter valid password</t>
+  </si>
+  <si>
+    <t>it should display gmail homepage</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>SC_COM_002</t>
+  </si>
+  <si>
+    <t>verify with valid recepients</t>
+  </si>
+  <si>
+    <t xml:space="preserve">step 8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify the compose button </t>
+  </si>
+  <si>
+    <t>click on the compose</t>
+  </si>
+  <si>
+    <t>it should display the compose button</t>
+  </si>
+  <si>
+    <t>it should be clicked and display the pop-up</t>
+  </si>
+  <si>
+    <t>step 9</t>
+  </si>
+  <si>
+    <t>Compose</t>
+  </si>
+  <si>
+    <t>SC_Inbox_003</t>
+  </si>
+  <si>
+    <t>Release  1</t>
+  </si>
+  <si>
+    <t>Sprint 1</t>
+  </si>
+  <si>
+    <t>To Do</t>
+  </si>
+  <si>
+    <t>Dev In Progress</t>
+  </si>
+  <si>
+    <t>Dev Done</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QA In Progress </t>
+  </si>
+  <si>
+    <t>QA Done</t>
+  </si>
+  <si>
+    <t>UAT In Progress</t>
+  </si>
+  <si>
+    <t>UAT Done</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ready To Release </t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>5d358b61276fe40c5337082e</t>
+  </si>
+  <si>
+    <t>6398694ffbf54baf290377e9</t>
+  </si>
+  <si>
+    <t>step name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,8 +293,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -175,6 +326,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -188,7 +357,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -199,6 +368,13 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -502,8 +678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -612,7 +788,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -756,47 +932,273 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" style="3" customWidth="1"/>
+    <col min="4" max="5" width="13.77734375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="29" style="3" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="19" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K1" t="s">
+    </row>
+    <row r="2" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>36</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E16" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="E17" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -806,12 +1208,318 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A3:J29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" customWidth="1"/>
+    <col min="9" max="9" width="16.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B4" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B19" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>